--- a/Company.xlsx
+++ b/Company.xlsx
@@ -754,9 +754,6 @@
     <t>JJ</t>
   </si>
   <si>
-    <t>govt</t>
-  </si>
-  <si>
     <t>insert into dbo.Accounts ([Login], PasswordHash, TokenSalt, [Role], Cash, [Status], Insurance, InsuranceLevel, Fullname, [Index], InsurancePoints, InsuranceHidden) values ('test-insert', CONVERT(varchar(36), NEWID()), NEWID(), 32, 10000, 1, 0, 0, '«Джон Смитт»', 0, 0, 0);</t>
   </si>
   <si>
@@ -777,6 +774,9 @@
 delete from dbo.AccountAccesses where Slave = @name OR [Master] = @name;
 delete from dbo.Accounts where [Login] = @name;
 GO;</t>
+  </si>
+  <si>
+    <t>Govt</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -970,6 +970,9 @@
     <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1286,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" activeCellId="1" sqref="A36:XFD36 A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1383,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D66" si="0">C3</f>
+        <f>C3</f>
         <v>clubhell</v>
       </c>
       <c r="E3" s="23" t="str">
@@ -1422,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C4</f>
         <v>tangobar</v>
       </c>
       <c r="E4" s="23" t="str">
@@ -1461,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C5</f>
         <v>cbs13</v>
       </c>
       <c r="E5" s="23" t="str">
@@ -1500,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C6</f>
         <v>orthchurch</v>
       </c>
       <c r="E6" s="23" t="str">
@@ -1539,7 +1542,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C7</f>
         <v>searchag</v>
       </c>
       <c r="E7" s="23" t="str">
@@ -1578,7 +1581,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C8</f>
         <v>solag</v>
       </c>
       <c r="E8" s="23" t="str">
@@ -1617,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C9</f>
         <v>lightag</v>
       </c>
       <c r="E9" s="23" t="str">
@@ -1656,7 +1659,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C10</f>
         <v>fimsag</v>
       </c>
       <c r="E10" s="23" t="str">
@@ -1695,7 +1698,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C11</f>
         <v>johnsonadm</v>
       </c>
       <c r="E11" s="23" t="str">
@@ -1734,7 +1737,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C12</f>
         <v>serenityadm</v>
       </c>
       <c r="E12" s="23" t="str">
@@ -1773,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C13</f>
         <v>deatharena</v>
       </c>
       <c r="E13" s="23" t="str">
@@ -1812,7 +1815,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C14</f>
         <v>arenacol</v>
       </c>
       <c r="E14" s="23" t="str">
@@ -1851,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C15</f>
         <v>twilightpub</v>
       </c>
       <c r="E15" s="23" t="str">
@@ -1890,7 +1893,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C16</f>
         <v>charitycab</v>
       </c>
       <c r="E16" s="23" t="str">
@@ -1929,7 +1932,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C17</f>
         <v>fundrebirth</v>
       </c>
       <c r="E17" s="23" t="str">
@@ -1968,7 +1971,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C18</f>
         <v>crimcloud</v>
       </c>
       <c r="E18" s="23" t="str">
@@ -2007,7 +2010,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C19</f>
         <v>vapeclub</v>
       </c>
       <c r="E19" s="23" t="str">
@@ -2046,7 +2049,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C20</f>
         <v>garagecoop</v>
       </c>
       <c r="E20" s="23" t="str">
@@ -2085,7 +2088,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C21</f>
         <v>sfpolice</v>
       </c>
       <c r="E21" s="23" t="str">
@@ -2124,7 +2127,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C22</f>
         <v>pivalentine</v>
       </c>
       <c r="E22" s="23" t="str">
@@ -2163,7 +2166,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C23</f>
         <v>pitokanava</v>
       </c>
       <c r="E23" s="23" t="str">
@@ -2202,7 +2205,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C24</f>
         <v>engincom</v>
       </c>
       <c r="E24" s="23" t="str">
@@ -2241,7 +2244,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C25</f>
         <v>masonpub</v>
       </c>
       <c r="E25" s="23" t="str">
@@ -2280,7 +2283,7 @@
         <v>72</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C26</f>
         <v>capshost</v>
       </c>
       <c r="E26" s="23" t="str">
@@ -2319,7 +2322,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C27</f>
         <v>lightcafe</v>
       </c>
       <c r="E27" s="23" t="str">
@@ -2358,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C28</f>
         <v>elysclub</v>
       </c>
       <c r="E28" s="23" t="str">
@@ -2397,7 +2400,7 @@
         <v>78</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C29</f>
         <v>columb</v>
       </c>
       <c r="E29" s="23" t="str">
@@ -2436,7 +2439,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C30</f>
         <v>rescuecom</v>
       </c>
       <c r="E30" s="23" t="str">
@@ -2475,7 +2478,7 @@
         <v>84</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C31</f>
         <v>securcom</v>
       </c>
       <c r="E31" s="23" t="str">
@@ -2514,7 +2517,7 @@
         <v>87</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C32</f>
         <v>solidcom</v>
       </c>
       <c r="E32" s="23" t="str">
@@ -2553,7 +2556,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C33</f>
         <v>arasinc</v>
       </c>
       <c r="E33" s="23" t="str">
@@ -2592,7 +2595,7 @@
         <v>91</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C34</f>
         <v>dexcomp</v>
       </c>
       <c r="E34" s="23" t="str">
@@ -2631,7 +2634,7 @@
         <v>93</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C35</f>
         <v>joycorp</v>
       </c>
       <c r="E35" s="23" t="str">
@@ -2670,7 +2673,7 @@
         <v>96</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C36</f>
         <v>kintsugicorp</v>
       </c>
       <c r="E36" s="23" t="str">
@@ -2709,7 +2712,7 @@
         <v>98</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C37</f>
         <v>opensource</v>
       </c>
       <c r="E37" s="23" t="str">
@@ -2748,7 +2751,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C38</f>
         <v>sunlight</v>
       </c>
       <c r="E38" s="23" t="str">
@@ -2787,7 +2790,7 @@
         <v>103</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C39</f>
         <v>exitclub</v>
       </c>
       <c r="E39" s="23" t="str">
@@ -2826,7 +2829,7 @@
         <v>106</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C40</f>
         <v>serenitycourt</v>
       </c>
       <c r="E40" s="23" t="str">
@@ -2931,7 +2934,7 @@
       <c r="B43" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="27" t="s">
         <v>114</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -2970,7 +2973,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C44</f>
         <v>lifescanlab</v>
       </c>
       <c r="E44" s="23" t="str">
@@ -3009,7 +3012,7 @@
         <v>120</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C45</f>
         <v>karhallab</v>
       </c>
       <c r="E45" s="23" t="str">
@@ -3048,7 +3051,7 @@
         <v>123</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C46</f>
         <v>cosmolab</v>
       </c>
       <c r="E46" s="23" t="str">
@@ -3087,7 +3090,7 @@
         <v>126</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C47</f>
         <v>infinity</v>
       </c>
       <c r="E47" s="23" t="str">
@@ -3126,7 +3129,7 @@
         <v>128</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C48</f>
         <v>spanglish</v>
       </c>
       <c r="E48" s="23" t="str">
@@ -3165,7 +3168,7 @@
         <v>131</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C49</f>
         <v>stfranhosp</v>
       </c>
       <c r="E49" s="23" t="str">
@@ -3204,7 +3207,7 @@
         <v>133</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C50</f>
         <v>jailmotel</v>
       </c>
       <c r="E50" s="23" t="str">
@@ -3243,7 +3246,7 @@
         <v>136</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C51</f>
         <v>activdtown</v>
       </c>
       <c r="E51" s="23" t="str">
@@ -3282,7 +3285,7 @@
         <v>139</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C52</f>
         <v>dinastyclub</v>
       </c>
       <c r="E52" s="23" t="str">
@@ -3321,7 +3324,7 @@
         <v>142</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C53</f>
         <v>pornstudio</v>
       </c>
       <c r="E53" s="23" t="str">
@@ -3360,7 +3363,7 @@
         <v>145</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C54</f>
         <v>ghostcorp</v>
       </c>
       <c r="E54" s="23" t="str">
@@ -3399,7 +3402,7 @@
         <v>148</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C55</f>
         <v>isracorp</v>
       </c>
       <c r="E55" s="23" t="str">
@@ -3438,7 +3441,7 @@
         <v>151</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C56</f>
         <v>sistersmith</v>
       </c>
       <c r="E56" s="23" t="str">
@@ -3477,7 +3480,7 @@
         <v>154</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C57</f>
         <v>thirdpub</v>
       </c>
       <c r="E57" s="23" t="str">
@@ -3516,7 +3519,7 @@
         <v>156</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C58</f>
         <v>salon42</v>
       </c>
       <c r="E58" s="23" t="str">
@@ -3555,7 +3558,7 @@
         <v>158</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C59</f>
         <v>brainstorm</v>
       </c>
       <c r="E59" s="23" t="str">
@@ -3594,7 +3597,7 @@
         <v>160</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C60</f>
         <v>cryskin</v>
       </c>
       <c r="E60" s="23" t="str">
@@ -3633,7 +3636,7 @@
         <v>162</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C61</f>
         <v>dextazy</v>
       </c>
       <c r="E61" s="23" t="str">
@@ -3672,7 +3675,7 @@
         <v>164</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C62</f>
         <v>servcenter</v>
       </c>
       <c r="E62" s="23" t="str">
@@ -3711,7 +3714,7 @@
         <v>166</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C63</f>
         <v>spacity</v>
       </c>
       <c r="E63" s="23" t="str">
@@ -3750,7 +3753,7 @@
         <v>169</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C64</f>
         <v>tatneedle</v>
       </c>
       <c r="E64" s="23" t="str">
@@ -3789,7 +3792,7 @@
         <v>172</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C65</f>
         <v>tatice</v>
       </c>
       <c r="E65" s="23" t="str">
@@ -3828,7 +3831,7 @@
         <v>175</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>C66</f>
         <v>janslab</v>
       </c>
       <c r="E66" s="23" t="str">
@@ -3867,7 +3870,7 @@
         <v>178</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:D92" si="1">C67</f>
+        <f>C67</f>
         <v>fedcybex</v>
       </c>
       <c r="E67" s="23" t="str">
@@ -3906,7 +3909,7 @@
         <v>180</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C68</f>
         <v>senstore</v>
       </c>
       <c r="E68" s="23" t="str">
@@ -3945,7 +3948,7 @@
         <v>183</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C69</f>
         <v>jjchurch</v>
       </c>
       <c r="E69" s="23" t="str">
@@ -3984,7 +3987,7 @@
         <v>186</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C70</f>
         <v>stregchurch</v>
       </c>
       <c r="E70" s="23" t="str">
@@ -4023,7 +4026,7 @@
         <v>189</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C71</f>
         <v>robocirc</v>
       </c>
       <c r="E71" s="23" t="str">
@@ -4062,7 +4065,7 @@
         <v>192</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C72</f>
         <v>teaseren</v>
       </c>
       <c r="E72" s="23" t="str">
@@ -4101,7 +4104,7 @@
         <v>195</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C73</f>
         <v>excollege</v>
       </c>
       <c r="E73" s="23" t="str">
@@ -4140,7 +4143,7 @@
         <v>197</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C74</f>
         <v>legalcom</v>
       </c>
       <c r="E74" s="23" t="str">
@@ -4179,7 +4182,7 @@
         <v>200</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C75</f>
         <v>jjfranch</v>
       </c>
       <c r="E75" s="23" t="str">
@@ -4218,7 +4221,7 @@
         <v>202</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C76</f>
         <v>johnsmith</v>
       </c>
       <c r="E76" s="23" t="str">
@@ -4257,7 +4260,7 @@
         <v>205</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C77</f>
         <v>neurolab</v>
       </c>
       <c r="E77" s="23" t="str">
@@ -4296,7 +4299,7 @@
         <v>207</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C78</f>
         <v>gentech</v>
       </c>
       <c r="E78" s="23" t="str">
@@ -4335,7 +4338,7 @@
         <v>209</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C79</f>
         <v>morg</v>
       </c>
       <c r="E79" s="23" t="str">
@@ -4374,7 +4377,7 @@
         <v>211</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C80</f>
         <v>simbipet</v>
       </c>
       <c r="E80" s="23" t="str">
@@ -4412,8 +4415,8 @@
       <c r="C81" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>244</v>
+      <c r="D81" s="28" t="s">
+        <v>249</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="2"/>
@@ -4448,7 +4451,7 @@
         <v>216</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C82</f>
         <v>johnsmfund</v>
       </c>
       <c r="E82" s="23" t="str">
@@ -4487,7 +4490,7 @@
         <v>218</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C83</f>
         <v>macfund</v>
       </c>
       <c r="E83" s="23" t="str">
@@ -4526,7 +4529,7 @@
         <v>220</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C84</f>
         <v>kranfund</v>
       </c>
       <c r="E84" s="23" t="str">
@@ -4565,7 +4568,7 @@
         <v>222</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C85</f>
         <v>gurfund</v>
       </c>
       <c r="E85" s="23" t="str">
@@ -4604,7 +4607,7 @@
         <v>224</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C86</f>
         <v>jonsfund</v>
       </c>
       <c r="E86" s="23" t="str">
@@ -4643,7 +4646,7 @@
         <v>227</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C87</f>
         <v>dinastfund</v>
       </c>
       <c r="E87" s="23" t="str">
@@ -4682,7 +4685,7 @@
         <v>229</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C88</f>
         <v>investfund</v>
       </c>
       <c r="E88" s="23" t="str">
@@ -4721,7 +4724,7 @@
         <v>231</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C89</f>
         <v>tradefund</v>
       </c>
       <c r="E89" s="23" t="str">
@@ -4750,17 +4753,17 @@
       <c r="Y89" s="2"/>
     </row>
     <row r="90" spans="1:25" ht="13">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="26" t="s">
         <v>233</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C90</f>
         <v>betcorn</v>
       </c>
       <c r="E90" s="23" t="str">
@@ -4789,17 +4792,17 @@
       <c r="Y90" s="2"/>
     </row>
     <row r="91" spans="1:25" ht="13">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="26" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C91</f>
         <v>abyssclub</v>
       </c>
       <c r="E91" s="23" t="str">
@@ -4828,17 +4831,17 @@
       <c r="Y91" s="2"/>
     </row>
     <row r="92" spans="1:25" ht="13">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="26" t="s">
         <v>237</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>C92</f>
         <v>highclub</v>
       </c>
       <c r="E92" s="23" t="str">
@@ -29393,7 +29396,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -29405,25 +29408,25 @@
   <sheetData>
     <row r="1" spans="1:2" ht="50">
       <c r="A1" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25">
       <c r="A2" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="125">
       <c r="A5" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Company.xlsx
+++ b/Company.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
-    <sheet name="Query" sheetId="2" r:id="rId2"/>
+    <sheet name="Masters" sheetId="3" r:id="rId2"/>
+    <sheet name="Query" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="279">
   <si>
     <t>Старое название</t>
   </si>
@@ -778,12 +779,99 @@
   <si>
     <t>Govt</t>
   </si>
+  <si>
+    <t>torgrim</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>njkcnbxtkkj</t>
+  </si>
+  <si>
+    <t>Торгрим</t>
+  </si>
+  <si>
+    <t>Энди</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Николя</t>
+  </si>
+  <si>
+    <t>Молидеус</t>
+  </si>
+  <si>
+    <t>bpnjcnthf</t>
+  </si>
+  <si>
+    <t>Толчок</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
+  <si>
+    <t>Деньги</t>
+  </si>
+  <si>
+    <t>Заведен</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>A.L.I.C.E</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Вася Кибержокей</t>
+  </si>
+  <si>
+    <t>test_hacker</t>
+  </si>
+  <si>
+    <t>fggdhdr654</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Darknet</t>
+  </si>
+  <si>
+    <t>darknet</t>
+  </si>
+  <si>
+    <t>test_victim</t>
+  </si>
+  <si>
+    <t>Бедная Кисонька</t>
+  </si>
+  <si>
+    <t>alice</t>
+  </si>
+  <si>
+    <t>mechanus7534</t>
+  </si>
+  <si>
+    <t>Администрация</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -848,6 +936,12 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF880000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -915,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -973,6 +1067,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1289,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4418,7 +4518,10 @@
       <c r="D81" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="E81" s="22"/>
+      <c r="E81" s="23" t="str">
+        <f>Query!$A$1 &amp; D81 &amp; Query!$A$2 &amp; B81 &amp; Query!$A$3</f>
+        <v>insert into dbo.Accounts ([Login], PasswordHash, TokenSalt, [Role], Cash, [Status], Insurance, InsuranceLevel, Fullname, [Index], InsurancePoints, InsuranceHidden) values ('Govt', CONVERT(varchar(36), NEWID()), NEWID(), 32, 10000, 1, 0, 0, 'SunLight/government', 0, 0, 0);</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -29393,10 +29496,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="30" customFormat="1">
+      <c r="A1" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2">
+        <v>1000000</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6">
+        <v>60000</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13">
+      <c r="A8" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>

--- a/Company.xlsx
+++ b/Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="285">
   <si>
     <t>Старое название</t>
   </si>
@@ -866,6 +866,31 @@
   <si>
     <t>Администрация</t>
   </si>
+  <si>
+    <t>Хелпдеск</t>
+  </si>
+  <si>
+    <t>Helpdesk</t>
+  </si>
+  <si>
+    <t>helpdesk</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>hdhdhd333</t>
+  </si>
+  <si>
+    <t>select [Login], [Role], total10, total50, total200 from dbo.Accounts 
+left outer join (select count(*) as total10, Employer from dbo.Payments where Amount = 10 group by employer) as t10
+on [Login] = t10.Employer
+left outer join (select count(*) as total50, Employer from dbo.Payments where Amount = 50 group by employer) as t50
+on [Login] = t50.Employer
+left outer join (select count(*) as total200, Employer from dbo.Payments where Amount = 200 group by employer) as t200
+on [Login] = t200.Employer
+ where [Role] &gt; 4 order by [Login];</t>
+  </si>
 </sst>
 </file>
 
@@ -1009,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1071,6 +1096,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
@@ -1447,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>C2</f>
+        <f t="shared" ref="D2:D40" si="0">C2</f>
         <v>amcoffee</v>
       </c>
       <c r="E2" s="23" t="str">
@@ -1486,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v>clubhell</v>
       </c>
       <c r="E3" s="23" t="str">
@@ -1525,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>tangobar</v>
       </c>
       <c r="E4" s="23" t="str">
@@ -1564,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>cbs13</v>
       </c>
       <c r="E5" s="23" t="str">
@@ -1603,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>orthchurch</v>
       </c>
       <c r="E6" s="23" t="str">
@@ -1642,7 +1670,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>searchag</v>
       </c>
       <c r="E7" s="23" t="str">
@@ -1681,7 +1709,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>solag</v>
       </c>
       <c r="E8" s="23" t="str">
@@ -1720,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>lightag</v>
       </c>
       <c r="E9" s="23" t="str">
@@ -1759,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>fimsag</v>
       </c>
       <c r="E10" s="23" t="str">
@@ -1798,7 +1826,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>johnsonadm</v>
       </c>
       <c r="E11" s="23" t="str">
@@ -1837,7 +1865,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>serenityadm</v>
       </c>
       <c r="E12" s="23" t="str">
@@ -1876,7 +1904,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>deatharena</v>
       </c>
       <c r="E13" s="23" t="str">
@@ -1915,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>C14</f>
+        <f t="shared" si="0"/>
         <v>arenacol</v>
       </c>
       <c r="E14" s="23" t="str">
@@ -1954,7 +1982,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>C15</f>
+        <f t="shared" si="0"/>
         <v>twilightpub</v>
       </c>
       <c r="E15" s="23" t="str">
@@ -1993,7 +2021,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>C16</f>
+        <f t="shared" si="0"/>
         <v>charitycab</v>
       </c>
       <c r="E16" s="23" t="str">
@@ -2032,7 +2060,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>C17</f>
+        <f t="shared" si="0"/>
         <v>fundrebirth</v>
       </c>
       <c r="E17" s="23" t="str">
@@ -2071,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>C18</f>
+        <f t="shared" si="0"/>
         <v>crimcloud</v>
       </c>
       <c r="E18" s="23" t="str">
@@ -2110,7 +2138,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>C19</f>
+        <f t="shared" si="0"/>
         <v>vapeclub</v>
       </c>
       <c r="E19" s="23" t="str">
@@ -2149,7 +2177,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>C20</f>
+        <f t="shared" si="0"/>
         <v>garagecoop</v>
       </c>
       <c r="E20" s="23" t="str">
@@ -2188,7 +2216,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>C21</f>
+        <f t="shared" si="0"/>
         <v>sfpolice</v>
       </c>
       <c r="E21" s="23" t="str">
@@ -2227,7 +2255,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>C22</f>
+        <f t="shared" si="0"/>
         <v>pivalentine</v>
       </c>
       <c r="E22" s="23" t="str">
@@ -2266,7 +2294,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>C23</f>
+        <f t="shared" si="0"/>
         <v>pitokanava</v>
       </c>
       <c r="E23" s="23" t="str">
@@ -2305,7 +2333,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>C24</f>
+        <f t="shared" si="0"/>
         <v>engincom</v>
       </c>
       <c r="E24" s="23" t="str">
@@ -2344,7 +2372,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>C25</f>
+        <f t="shared" si="0"/>
         <v>masonpub</v>
       </c>
       <c r="E25" s="23" t="str">
@@ -2383,7 +2411,7 @@
         <v>72</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>C26</f>
+        <f t="shared" si="0"/>
         <v>capshost</v>
       </c>
       <c r="E26" s="23" t="str">
@@ -2422,7 +2450,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>C27</f>
+        <f t="shared" si="0"/>
         <v>lightcafe</v>
       </c>
       <c r="E27" s="23" t="str">
@@ -2461,7 +2489,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>C28</f>
+        <f t="shared" si="0"/>
         <v>elysclub</v>
       </c>
       <c r="E28" s="23" t="str">
@@ -2500,7 +2528,7 @@
         <v>78</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>C29</f>
+        <f t="shared" si="0"/>
         <v>columb</v>
       </c>
       <c r="E29" s="23" t="str">
@@ -2539,7 +2567,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>C30</f>
+        <f t="shared" si="0"/>
         <v>rescuecom</v>
       </c>
       <c r="E30" s="23" t="str">
@@ -2578,7 +2606,7 @@
         <v>84</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>C31</f>
+        <f t="shared" si="0"/>
         <v>securcom</v>
       </c>
       <c r="E31" s="23" t="str">
@@ -2617,7 +2645,7 @@
         <v>87</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>C32</f>
+        <f t="shared" si="0"/>
         <v>solidcom</v>
       </c>
       <c r="E32" s="23" t="str">
@@ -2656,7 +2684,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>C33</f>
+        <f t="shared" si="0"/>
         <v>arasinc</v>
       </c>
       <c r="E33" s="23" t="str">
@@ -2695,7 +2723,7 @@
         <v>91</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>C34</f>
+        <f t="shared" si="0"/>
         <v>dexcomp</v>
       </c>
       <c r="E34" s="23" t="str">
@@ -2734,7 +2762,7 @@
         <v>93</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>C35</f>
+        <f t="shared" si="0"/>
         <v>joycorp</v>
       </c>
       <c r="E35" s="23" t="str">
@@ -2773,7 +2801,7 @@
         <v>96</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>C36</f>
+        <f t="shared" si="0"/>
         <v>kintsugicorp</v>
       </c>
       <c r="E36" s="23" t="str">
@@ -2812,7 +2840,7 @@
         <v>98</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>C37</f>
+        <f t="shared" si="0"/>
         <v>opensource</v>
       </c>
       <c r="E37" s="23" t="str">
@@ -2851,7 +2879,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>C38</f>
+        <f t="shared" si="0"/>
         <v>sunlight</v>
       </c>
       <c r="E38" s="23" t="str">
@@ -2890,7 +2918,7 @@
         <v>103</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f>C39</f>
+        <f t="shared" si="0"/>
         <v>exitclub</v>
       </c>
       <c r="E39" s="23" t="str">
@@ -2929,7 +2957,7 @@
         <v>106</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>C40</f>
+        <f t="shared" si="0"/>
         <v>serenitycourt</v>
       </c>
       <c r="E40" s="23" t="str">
@@ -3073,7 +3101,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>C44</f>
+        <f t="shared" ref="D44:D80" si="1">C44</f>
         <v>lifescanlab</v>
       </c>
       <c r="E44" s="23" t="str">
@@ -3112,7 +3140,7 @@
         <v>120</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>C45</f>
+        <f t="shared" si="1"/>
         <v>karhallab</v>
       </c>
       <c r="E45" s="23" t="str">
@@ -3151,7 +3179,7 @@
         <v>123</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>C46</f>
+        <f t="shared" si="1"/>
         <v>cosmolab</v>
       </c>
       <c r="E46" s="23" t="str">
@@ -3190,7 +3218,7 @@
         <v>126</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>C47</f>
+        <f t="shared" si="1"/>
         <v>infinity</v>
       </c>
       <c r="E47" s="23" t="str">
@@ -3229,7 +3257,7 @@
         <v>128</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>C48</f>
+        <f t="shared" si="1"/>
         <v>spanglish</v>
       </c>
       <c r="E48" s="23" t="str">
@@ -3268,7 +3296,7 @@
         <v>131</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>C49</f>
+        <f t="shared" si="1"/>
         <v>stfranhosp</v>
       </c>
       <c r="E49" s="23" t="str">
@@ -3307,7 +3335,7 @@
         <v>133</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>C50</f>
+        <f t="shared" si="1"/>
         <v>jailmotel</v>
       </c>
       <c r="E50" s="23" t="str">
@@ -3346,7 +3374,7 @@
         <v>136</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f>C51</f>
+        <f t="shared" si="1"/>
         <v>activdtown</v>
       </c>
       <c r="E51" s="23" t="str">
@@ -3385,7 +3413,7 @@
         <v>139</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f>C52</f>
+        <f t="shared" si="1"/>
         <v>dinastyclub</v>
       </c>
       <c r="E52" s="23" t="str">
@@ -3424,7 +3452,7 @@
         <v>142</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>C53</f>
+        <f t="shared" si="1"/>
         <v>pornstudio</v>
       </c>
       <c r="E53" s="23" t="str">
@@ -3463,7 +3491,7 @@
         <v>145</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>C54</f>
+        <f t="shared" si="1"/>
         <v>ghostcorp</v>
       </c>
       <c r="E54" s="23" t="str">
@@ -3502,7 +3530,7 @@
         <v>148</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>C55</f>
+        <f t="shared" si="1"/>
         <v>isracorp</v>
       </c>
       <c r="E55" s="23" t="str">
@@ -3541,7 +3569,7 @@
         <v>151</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>C56</f>
+        <f t="shared" si="1"/>
         <v>sistersmith</v>
       </c>
       <c r="E56" s="23" t="str">
@@ -3580,7 +3608,7 @@
         <v>154</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>C57</f>
+        <f t="shared" si="1"/>
         <v>thirdpub</v>
       </c>
       <c r="E57" s="23" t="str">
@@ -3619,7 +3647,7 @@
         <v>156</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f>C58</f>
+        <f t="shared" si="1"/>
         <v>salon42</v>
       </c>
       <c r="E58" s="23" t="str">
@@ -3658,7 +3686,7 @@
         <v>158</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f>C59</f>
+        <f t="shared" si="1"/>
         <v>brainstorm</v>
       </c>
       <c r="E59" s="23" t="str">
@@ -3697,7 +3725,7 @@
         <v>160</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f>C60</f>
+        <f t="shared" si="1"/>
         <v>cryskin</v>
       </c>
       <c r="E60" s="23" t="str">
@@ -3736,7 +3764,7 @@
         <v>162</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f>C61</f>
+        <f t="shared" si="1"/>
         <v>dextazy</v>
       </c>
       <c r="E61" s="23" t="str">
@@ -3775,7 +3803,7 @@
         <v>164</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f>C62</f>
+        <f t="shared" si="1"/>
         <v>servcenter</v>
       </c>
       <c r="E62" s="23" t="str">
@@ -3814,7 +3842,7 @@
         <v>166</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f>C63</f>
+        <f t="shared" si="1"/>
         <v>spacity</v>
       </c>
       <c r="E63" s="23" t="str">
@@ -3853,7 +3881,7 @@
         <v>169</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f>C64</f>
+        <f t="shared" si="1"/>
         <v>tatneedle</v>
       </c>
       <c r="E64" s="23" t="str">
@@ -3892,7 +3920,7 @@
         <v>172</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f>C65</f>
+        <f t="shared" si="1"/>
         <v>tatice</v>
       </c>
       <c r="E65" s="23" t="str">
@@ -3931,7 +3959,7 @@
         <v>175</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f>C66</f>
+        <f t="shared" si="1"/>
         <v>janslab</v>
       </c>
       <c r="E66" s="23" t="str">
@@ -3970,7 +3998,7 @@
         <v>178</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f>C67</f>
+        <f t="shared" si="1"/>
         <v>fedcybex</v>
       </c>
       <c r="E67" s="23" t="str">
@@ -4009,7 +4037,7 @@
         <v>180</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f>C68</f>
+        <f t="shared" si="1"/>
         <v>senstore</v>
       </c>
       <c r="E68" s="23" t="str">
@@ -4048,7 +4076,7 @@
         <v>183</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f>C69</f>
+        <f t="shared" si="1"/>
         <v>jjchurch</v>
       </c>
       <c r="E69" s="23" t="str">
@@ -4087,7 +4115,7 @@
         <v>186</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f>C70</f>
+        <f t="shared" si="1"/>
         <v>stregchurch</v>
       </c>
       <c r="E70" s="23" t="str">
@@ -4126,7 +4154,7 @@
         <v>189</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f>C71</f>
+        <f t="shared" si="1"/>
         <v>robocirc</v>
       </c>
       <c r="E71" s="23" t="str">
@@ -4165,7 +4193,7 @@
         <v>192</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f>C72</f>
+        <f t="shared" si="1"/>
         <v>teaseren</v>
       </c>
       <c r="E72" s="23" t="str">
@@ -4204,7 +4232,7 @@
         <v>195</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f>C73</f>
+        <f t="shared" si="1"/>
         <v>excollege</v>
       </c>
       <c r="E73" s="23" t="str">
@@ -4243,7 +4271,7 @@
         <v>197</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f>C74</f>
+        <f t="shared" si="1"/>
         <v>legalcom</v>
       </c>
       <c r="E74" s="23" t="str">
@@ -4282,7 +4310,7 @@
         <v>200</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f>C75</f>
+        <f t="shared" si="1"/>
         <v>jjfranch</v>
       </c>
       <c r="E75" s="23" t="str">
@@ -4321,7 +4349,7 @@
         <v>202</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f>C76</f>
+        <f t="shared" si="1"/>
         <v>johnsmith</v>
       </c>
       <c r="E76" s="23" t="str">
@@ -4360,7 +4388,7 @@
         <v>205</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f>C77</f>
+        <f t="shared" si="1"/>
         <v>neurolab</v>
       </c>
       <c r="E77" s="23" t="str">
@@ -4399,7 +4427,7 @@
         <v>207</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f>C78</f>
+        <f t="shared" si="1"/>
         <v>gentech</v>
       </c>
       <c r="E78" s="23" t="str">
@@ -4438,7 +4466,7 @@
         <v>209</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f>C79</f>
+        <f t="shared" si="1"/>
         <v>morg</v>
       </c>
       <c r="E79" s="23" t="str">
@@ -4477,7 +4505,7 @@
         <v>211</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f>C80</f>
+        <f t="shared" si="1"/>
         <v>simbipet</v>
       </c>
       <c r="E80" s="23" t="str">
@@ -4554,7 +4582,7 @@
         <v>216</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f>C82</f>
+        <f t="shared" ref="D82:D92" si="2">C82</f>
         <v>johnsmfund</v>
       </c>
       <c r="E82" s="23" t="str">
@@ -4593,7 +4621,7 @@
         <v>218</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f>C83</f>
+        <f t="shared" si="2"/>
         <v>macfund</v>
       </c>
       <c r="E83" s="23" t="str">
@@ -4632,7 +4660,7 @@
         <v>220</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f>C84</f>
+        <f t="shared" si="2"/>
         <v>kranfund</v>
       </c>
       <c r="E84" s="23" t="str">
@@ -4671,7 +4699,7 @@
         <v>222</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f>C85</f>
+        <f t="shared" si="2"/>
         <v>gurfund</v>
       </c>
       <c r="E85" s="23" t="str">
@@ -4710,7 +4738,7 @@
         <v>224</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f>C86</f>
+        <f t="shared" si="2"/>
         <v>jonsfund</v>
       </c>
       <c r="E86" s="23" t="str">
@@ -4749,7 +4777,7 @@
         <v>227</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f>C87</f>
+        <f t="shared" si="2"/>
         <v>dinastfund</v>
       </c>
       <c r="E87" s="23" t="str">
@@ -4788,7 +4816,7 @@
         <v>229</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f>C88</f>
+        <f t="shared" si="2"/>
         <v>investfund</v>
       </c>
       <c r="E88" s="23" t="str">
@@ -4827,7 +4855,7 @@
         <v>231</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f>C89</f>
+        <f t="shared" si="2"/>
         <v>tradefund</v>
       </c>
       <c r="E89" s="23" t="str">
@@ -4866,7 +4894,7 @@
         <v>234</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f>C90</f>
+        <f t="shared" si="2"/>
         <v>betcorn</v>
       </c>
       <c r="E90" s="23" t="str">
@@ -4905,7 +4933,7 @@
         <v>236</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f>C91</f>
+        <f t="shared" si="2"/>
         <v>abyssclub</v>
       </c>
       <c r="E91" s="23" t="str">
@@ -4944,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f>C92</f>
+        <f t="shared" si="2"/>
         <v>highclub</v>
       </c>
       <c r="E92" s="23" t="str">
@@ -29496,10 +29524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -29682,6 +29710,29 @@
         <v>265</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29689,10 +29740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -29725,6 +29776,11 @@
         <v>248</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="121" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Company.xlsx
+++ b/Company.xlsx
@@ -29743,7 +29743,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>

--- a/Company.xlsx
+++ b/Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="284">
   <si>
     <t>Старое название</t>
   </si>
@@ -819,9 +819,6 @@
     <t>Роль</t>
   </si>
   <si>
-    <t>Деньги</t>
-  </si>
-  <si>
     <t>Заведен</t>
   </si>
   <si>
@@ -29524,10 +29521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -29537,16 +29534,15 @@
     <col min="3" max="3" width="15.7265625" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1">
+    <row r="1" spans="1:6" s="30" customFormat="1">
       <c r="A1" s="31" t="s">
         <v>259</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>260</v>
@@ -29560,16 +29556,13 @@
       <c r="F1" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>250</v>
@@ -29580,37 +29573,31 @@
       <c r="E2" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="F2">
-        <v>1000000</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
         <v>254</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>276</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>277</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
         <v>256</v>
       </c>
@@ -29626,111 +29613,96 @@
       <c r="E4" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>273</v>
-      </c>
       <c r="D6" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="F6">
-        <v>60000</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="D7" t="s">
         <v>269</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7">
-        <v>300</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13">
+      <c r="F7" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13">
       <c r="A8" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F8" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="s">
         <v>279</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>280</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" t="s">
         <v>281</v>
       </c>
-      <c r="D10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10">
-        <v>1000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>265</v>
+      <c r="F10" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -29742,7 +29714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -29778,7 +29750,7 @@
     </row>
     <row r="6" spans="1:2" ht="121" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/Company.xlsx
+++ b/Company.xlsx
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
-    <sheet name="Masters" sheetId="3" r:id="rId2"/>
-    <sheet name="Query" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId2"/>
+    <sheet name="Masters" sheetId="3" r:id="rId3"/>
+    <sheet name="Query" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="501">
   <si>
     <t>Старое название</t>
   </si>
@@ -888,12 +889,663 @@
 on [Login] = t200.Employer
  where [Role] &gt; 4 order by [Login];</t>
   </si>
+  <si>
+    <t>Имя в JOin</t>
+  </si>
+  <si>
+    <t>Имя в беке Николя</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
+  <si>
+    <t>Пароль магазина/юр лица</t>
+  </si>
+  <si>
+    <t>Пароль ЮЛ</t>
+  </si>
+  <si>
+    <t>Локация</t>
+  </si>
+  <si>
+    <t>Корпорация</t>
+  </si>
+  <si>
+    <t>ЗП уровня 1</t>
+  </si>
+  <si>
+    <t>ЗП уровня 2</t>
+  </si>
+  <si>
+    <t>ЗП уровня 3</t>
+  </si>
+  <si>
+    <t>Итого зп</t>
+  </si>
+  <si>
+    <t>Чья страховка действует</t>
+  </si>
+  <si>
+    <t>wpnl0gnq</t>
+  </si>
+  <si>
+    <t>Нижний город</t>
+  </si>
+  <si>
+    <t>3pa796b5</t>
+  </si>
+  <si>
+    <t>yqx5qyvk</t>
+  </si>
+  <si>
+    <t>Небесный город</t>
+  </si>
+  <si>
+    <t>4aqygxhz</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>7uki3one</t>
+  </si>
+  <si>
+    <t>737phe3d</t>
+  </si>
+  <si>
+    <t>eo514def</t>
+  </si>
+  <si>
+    <t>amygzavg</t>
+  </si>
+  <si>
+    <t>Pont Rouge</t>
+  </si>
+  <si>
+    <t>k08qsyjo</t>
+  </si>
+  <si>
+    <t>x7dzbc1c</t>
+  </si>
+  <si>
+    <t>S, vip</t>
+  </si>
+  <si>
+    <t>kgsjess5</t>
+  </si>
+  <si>
+    <t>JJ, vip</t>
+  </si>
+  <si>
+    <t>2bs4ficy</t>
+  </si>
+  <si>
+    <t>PA, vip</t>
+  </si>
+  <si>
+    <t>0sxl8pgq</t>
+  </si>
+  <si>
+    <t>xhr2q5wi</t>
+  </si>
+  <si>
+    <t>jdvwovei</t>
+  </si>
+  <si>
+    <t>s5bjgw2v</t>
+  </si>
+  <si>
+    <t>vkc9crdj</t>
+  </si>
+  <si>
+    <t>r2yfd0e2</t>
+  </si>
+  <si>
+    <t>Медкабинет JJ</t>
+  </si>
+  <si>
+    <t>2fopmh2t</t>
+  </si>
+  <si>
+    <t>pesh8jk7</t>
+  </si>
+  <si>
+    <t>4mn8v5ra</t>
+  </si>
+  <si>
+    <t>ogqe7waa</t>
+  </si>
+  <si>
+    <t>ov9uwsi6</t>
+  </si>
+  <si>
+    <t>itenwe4t</t>
+  </si>
+  <si>
+    <t>1eq5n0ps</t>
+  </si>
+  <si>
+    <t>shsvv9to</t>
+  </si>
+  <si>
+    <t>0awe6hfb</t>
+  </si>
+  <si>
+    <t>24c2z4kt</t>
+  </si>
+  <si>
+    <t>8cv54t46</t>
+  </si>
+  <si>
+    <t>seppxd16</t>
+  </si>
+  <si>
+    <t>xe55r2bu</t>
+  </si>
+  <si>
+    <t>corrd0cu</t>
+  </si>
+  <si>
+    <t>rqfcqj2x</t>
+  </si>
+  <si>
+    <t>w1nzp1ih</t>
+  </si>
+  <si>
+    <t>0m82dvxb</t>
+  </si>
+  <si>
+    <t>x6t92b3j</t>
+  </si>
+  <si>
+    <t>0a7m8e72</t>
+  </si>
+  <si>
+    <t>nctlkitn</t>
+  </si>
+  <si>
+    <t>66tifl21</t>
+  </si>
+  <si>
+    <t>g34wci3x</t>
+  </si>
+  <si>
+    <t>hubohzli</t>
+  </si>
+  <si>
+    <t>jc4dn18b</t>
+  </si>
+  <si>
+    <t>ag2vva5s</t>
+  </si>
+  <si>
+    <t>2ger5gh5</t>
+  </si>
+  <si>
+    <t>6wislj73</t>
+  </si>
+  <si>
+    <t>esjlcqwr</t>
+  </si>
+  <si>
+    <t>fs2tadle</t>
+  </si>
+  <si>
+    <t>k1nf4y9j</t>
+  </si>
+  <si>
+    <t>qb1q6bav</t>
+  </si>
+  <si>
+    <t>2kylg3ah</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>4qmsm3nh</t>
+  </si>
+  <si>
+    <t>vdve1hks</t>
+  </si>
+  <si>
+    <t>w6gicmi1</t>
+  </si>
+  <si>
+    <t>8ozx03jz</t>
+  </si>
+  <si>
+    <t>pis5qgpc</t>
+  </si>
+  <si>
+    <t>3ru5h8kr</t>
+  </si>
+  <si>
+    <t>2yunqshz</t>
+  </si>
+  <si>
+    <t>ydxckg71</t>
+  </si>
+  <si>
+    <t>bmvz3xt3</t>
+  </si>
+  <si>
+    <t>q81jev8m</t>
+  </si>
+  <si>
+    <t>гос 2, vip</t>
+  </si>
+  <si>
+    <t>4eoyzn9l</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>vzvqzona</t>
+  </si>
+  <si>
+    <t>nx6f3r2d</t>
+  </si>
+  <si>
+    <t>ekli9vp7</t>
+  </si>
+  <si>
+    <t>ow0ey110</t>
+  </si>
+  <si>
+    <t>zptekn6d</t>
+  </si>
+  <si>
+    <t>r9t5hcye</t>
+  </si>
+  <si>
+    <t>4e6lgmq9</t>
+  </si>
+  <si>
+    <t>nj4a00nq</t>
+  </si>
+  <si>
+    <t>stao64b5</t>
+  </si>
+  <si>
+    <t>zkt656yf</t>
+  </si>
+  <si>
+    <t>h894tb53</t>
+  </si>
+  <si>
+    <t>Лаборатория Холдена</t>
+  </si>
+  <si>
+    <t>holdenlab</t>
+  </si>
+  <si>
+    <t>0s2jmq8q</t>
+  </si>
+  <si>
+    <t>a73vqre4</t>
+  </si>
+  <si>
+    <t>0v99fico</t>
+  </si>
+  <si>
+    <t>xg6nim5l</t>
+  </si>
+  <si>
+    <t>eagi0en5</t>
+  </si>
+  <si>
+    <t>rlhq7yq0</t>
+  </si>
+  <si>
+    <t>r1al9iad</t>
+  </si>
+  <si>
+    <t>sc4ol8hx</t>
+  </si>
+  <si>
+    <t>wran3ti1</t>
+  </si>
+  <si>
+    <t>wrvwxl8b</t>
+  </si>
+  <si>
+    <t>jetfbvqy</t>
+  </si>
+  <si>
+    <t>nixnoj1j</t>
+  </si>
+  <si>
+    <t>ys78wl0t</t>
+  </si>
+  <si>
+    <t>bngl0k4t</t>
+  </si>
+  <si>
+    <t>tjl132j2</t>
+  </si>
+  <si>
+    <t>7lws5dn0</t>
+  </si>
+  <si>
+    <t>ut56032t</t>
+  </si>
+  <si>
+    <t>a25hxghl</t>
+  </si>
+  <si>
+    <t>1r5vk0w5</t>
+  </si>
+  <si>
+    <t>bhb5tq0o</t>
+  </si>
+  <si>
+    <t>pbt7koio</t>
+  </si>
+  <si>
+    <t>myvtklms</t>
+  </si>
+  <si>
+    <t>zle1o6mz</t>
+  </si>
+  <si>
+    <t>2j0aswuq</t>
+  </si>
+  <si>
+    <t>yvm8o9oe</t>
+  </si>
+  <si>
+    <t>Kintsugi Company</t>
+  </si>
+  <si>
+    <t>kintsugicompany</t>
+  </si>
+  <si>
+    <t>dhs64fh</t>
+  </si>
+  <si>
+    <t>Кафе Гавайи</t>
+  </si>
+  <si>
+    <t>hawaii</t>
+  </si>
+  <si>
+    <t>fhdjds56dj</t>
+  </si>
+  <si>
+    <t>Нарлин</t>
+  </si>
+  <si>
+    <t>Злата</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Ени</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Зуев</t>
+  </si>
+  <si>
+    <t>НН</t>
+  </si>
+  <si>
+    <t>Невилл/Коло</t>
+  </si>
+  <si>
+    <t>США/Небесн</t>
+  </si>
+  <si>
+    <t>',4);</t>
+  </si>
+  <si>
+    <t>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('</t>
+  </si>
+  <si>
+    <t>AliceID хозяина</t>
+  </si>
+  <si>
+    <t>aliza.goldenson@alice.digital</t>
+  </si>
+  <si>
+    <t>onidzuka.okazaki@alice.digital</t>
+  </si>
+  <si>
+    <t>george.kranion@alice.digital</t>
+  </si>
+  <si>
+    <t>ginger.adams@alice.digital</t>
+  </si>
+  <si>
+    <t>tris@alice.digital</t>
+  </si>
+  <si>
+    <t>seth.mackenzie@alice.digital</t>
+  </si>
+  <si>
+    <t>dimitar.frank@alice.digital</t>
+  </si>
+  <si>
+    <t>rudolph.prague@alice.digital</t>
+  </si>
+  <si>
+    <t>azzerra.leone@alice.digital</t>
+  </si>
+  <si>
+    <t>karl.gatlin@alice.digital</t>
+  </si>
+  <si>
+    <t>eva.vengaza@alice.digital</t>
+  </si>
+  <si>
+    <t>adelle.moor@alice.digital</t>
+  </si>
+  <si>
+    <t>eva.bartek@alice.digital</t>
+  </si>
+  <si>
+    <t>ewan@alice.digital</t>
+  </si>
+  <si>
+    <t>masalapalm@alice.digital</t>
+  </si>
+  <si>
+    <t>janishatinen@alice.digital</t>
+  </si>
+  <si>
+    <t>brey.quinn@alice.digital</t>
+  </si>
+  <si>
+    <t>dean.cauper@alice.digital</t>
+  </si>
+  <si>
+    <t>ben.janssen@alice.digital</t>
+  </si>
+  <si>
+    <t>frank.kauperwood@alice.digital</t>
+  </si>
+  <si>
+    <t>mary.kane@alice.digital</t>
+  </si>
+  <si>
+    <t>gedeon.day@alice.digital</t>
+  </si>
+  <si>
+    <t>lamber.wilson@alice.digital</t>
+  </si>
+  <si>
+    <t>ivanna.anderson@alice.digital</t>
+  </si>
+  <si>
+    <t>alan.wallpall@alice.digital</t>
+  </si>
+  <si>
+    <t>melinda.alan@alice.digital</t>
+  </si>
+  <si>
+    <t>nobu.johnes@alice.digital</t>
+  </si>
+  <si>
+    <t>tiberia.sagraedo@alice.digital</t>
+  </si>
+  <si>
+    <t>leticia.moreno@alice.digital</t>
+  </si>
+  <si>
+    <t>adam.pearson@alice.digital</t>
+  </si>
+  <si>
+    <t>ai.dx550101@alice.digital</t>
+  </si>
+  <si>
+    <t>malou.jones@alice.digital</t>
+  </si>
+  <si>
+    <t>ada.pearson@alice.digital</t>
+  </si>
+  <si>
+    <t>captain@alice.digital</t>
+  </si>
+  <si>
+    <t>day.bao@alice.digital</t>
+  </si>
+  <si>
+    <t>kio.inu@alice.digital</t>
+  </si>
+  <si>
+    <t>obama.fitz@alice.digital</t>
+  </si>
+  <si>
+    <t>frank.pontecorvo@alice.digital</t>
+  </si>
+  <si>
+    <t>john.smith@alice.digital</t>
+  </si>
+  <si>
+    <t>karl.veimark@alice.digital</t>
+  </si>
+  <si>
+    <t>sharon.mcdoughlas@alice.digital</t>
+  </si>
+  <si>
+    <t>mary.shredingerorlova@alice.digital</t>
+  </si>
+  <si>
+    <t>bruce.logan@alice.digital</t>
+  </si>
+  <si>
+    <t>joshua.krodrigez@alice.digital</t>
+  </si>
+  <si>
+    <t>anna.gothorn@alice.digital</t>
+  </si>
+  <si>
+    <t>moro@alice.digital</t>
+  </si>
+  <si>
+    <t>irisdell@alice.digital</t>
+  </si>
+  <si>
+    <t>enoch.hunter@alice.digital</t>
+  </si>
+  <si>
+    <t>anna.dvorkin@alice.digital</t>
+  </si>
+  <si>
+    <t>old.gizer@alice.digital</t>
+  </si>
+  <si>
+    <t>dr.int@alice.digital</t>
+  </si>
+  <si>
+    <t>christinalewis@alice.digital</t>
+  </si>
+  <si>
+    <t>max.nardi@alice.digital</t>
+  </si>
+  <si>
+    <t>maria.matias@alice.digital</t>
+  </si>
+  <si>
+    <t>tonystark@alice.digital</t>
+  </si>
+  <si>
+    <t>maria.lumen@alice.digital</t>
+  </si>
+  <si>
+    <t>holden@alice.digital</t>
+  </si>
+  <si>
+    <t>tomas.pain@alice.digital</t>
+  </si>
+  <si>
+    <t>alkes@alice.digital</t>
+  </si>
+  <si>
+    <t>joe.heart@alice.digital</t>
+  </si>
+  <si>
+    <t>viktor.karhal@alice.digital</t>
+  </si>
+  <si>
+    <t>viktor.haze@alice.digital</t>
+  </si>
+  <si>
+    <t>polina@alice.digital</t>
+  </si>
+  <si>
+    <t>john.tabledrop@alice.digital</t>
+  </si>
+  <si>
+    <t>gary.tokanava@alice.digital</t>
+  </si>
+  <si>
+    <t>jack.valentine@alice.digital</t>
+  </si>
+  <si>
+    <t>miranda.weiss@alice.digital</t>
+  </si>
+  <si>
+    <t>maria.smith@alice.digital</t>
+  </si>
+  <si>
+    <t>jasaul@alice.digital</t>
+  </si>
+  <si>
+    <t>john.silver@alice.digital</t>
+  </si>
+  <si>
+    <t>mark.steal@alice.digital</t>
+  </si>
+  <si>
+    <t>volk@alice.digital</t>
+  </si>
+  <si>
+    <t>erica.jackson@alice.digital</t>
+  </si>
+  <si>
+    <t>deimon.kovalevsky@alice.digital</t>
+  </si>
+  <si>
+    <t>dfg345sda</t>
+  </si>
+  <si>
+    <t>sd764er</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -965,8 +1617,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,8 +1679,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEC0BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1027,11 +1721,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1097,6 +1926,85 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
@@ -29521,10 +30429,4149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J69" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="34.90625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="P1" s="57"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40">
+        <v>2</v>
+      </c>
+      <c r="K2" s="40">
+        <v>1</v>
+      </c>
+      <c r="L2" s="40">
+        <v>0</v>
+      </c>
+      <c r="M2" s="40">
+        <v>3</v>
+      </c>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40">
+        <v>13678</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>Query!$B$1 &amp; D2 &amp; "','" &amp; O2 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('abyssclub','13678',4);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="25">
+      <c r="A3" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40">
+        <v>0</v>
+      </c>
+      <c r="K3" s="40">
+        <v>1</v>
+      </c>
+      <c r="L3" s="40">
+        <v>0</v>
+      </c>
+      <c r="M3" s="40">
+        <v>1</v>
+      </c>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40">
+        <v>4403</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>Query!$B$1 &amp; D3 &amp; "','" &amp; O3 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('excollege','4403',4);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40">
+        <v>3</v>
+      </c>
+      <c r="K4" s="40">
+        <v>1</v>
+      </c>
+      <c r="L4" s="40">
+        <v>0</v>
+      </c>
+      <c r="M4" s="40">
+        <v>4</v>
+      </c>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
+        <v>9945</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>Query!$B$1 &amp; D4 &amp; "','" &amp; O4 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('kranfund','9945',4);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40">
+        <v>1</v>
+      </c>
+      <c r="L5" s="40">
+        <v>0</v>
+      </c>
+      <c r="M5" s="40">
+        <v>1</v>
+      </c>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40">
+        <v>13959</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>Query!$B$1 &amp; D5 &amp; "','" &amp; O5 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('betcorn','13959',4);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14">
+      <c r="A6" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="40">
+        <v>3</v>
+      </c>
+      <c r="K6" s="40">
+        <v>2</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40">
+        <v>6</v>
+      </c>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40">
+        <v>10191</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>Query!$B$1 &amp; D6 &amp; "','" &amp; O6 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('neurolab','10191',4);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>1</v>
+      </c>
+      <c r="L7" s="40">
+        <v>2</v>
+      </c>
+      <c r="M7" s="40">
+        <v>3</v>
+      </c>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40">
+        <v>7503</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>Query!$B$1 &amp; D7 &amp; "','" &amp; O7 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('macfund','7503',4);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40">
+        <v>5</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
+        <v>1</v>
+      </c>
+      <c r="M8" s="40">
+        <v>6</v>
+      </c>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40">
+        <v>15397</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>Query!$B$1 &amp; D8 &amp; "','" &amp; O8 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('morg','15397',4);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40">
+        <v>4</v>
+      </c>
+      <c r="K9" s="40">
+        <v>1</v>
+      </c>
+      <c r="L9" s="40">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
+        <v>5</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40">
+        <v>11715</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>Query!$B$1 &amp; D9 &amp; "','" &amp; O9 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('stregchurch','11715',4);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40">
+        <v>0</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1</v>
+      </c>
+      <c r="L10" s="40">
+        <v>0</v>
+      </c>
+      <c r="M10" s="40">
+        <v>1</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O10" s="40">
+        <v>13609</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>Query!$B$1 &amp; D10 &amp; "','" &amp; O10 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('robocirc','13609',4);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40">
+        <v>0</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1</v>
+      </c>
+      <c r="L11" s="40">
+        <v>0</v>
+      </c>
+      <c r="M11" s="40">
+        <v>1</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O11" s="40">
+        <v>15460</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>Query!$B$1 &amp; D11 &amp; "','" &amp; O11 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('simbipet','15460',4);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40">
+        <v>0</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
+        <v>0</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O12" s="40">
+        <v>6906</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>Query!$B$1 &amp; D12 &amp; "','" &amp; O12 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('senstore','6906',4);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14">
+      <c r="A13" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40">
+        <v>1</v>
+      </c>
+      <c r="K13" s="40">
+        <v>1</v>
+      </c>
+      <c r="L13" s="40">
+        <v>0</v>
+      </c>
+      <c r="M13" s="40">
+        <v>2</v>
+      </c>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40">
+        <v>13674</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>Query!$B$1 &amp; D13 &amp; "','" &amp; O13 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('spacity','13674',4);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40">
+        <v>2</v>
+      </c>
+      <c r="K14" s="40">
+        <v>2</v>
+      </c>
+      <c r="L14" s="40">
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <v>4</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40">
+        <v>13156</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>Query!$B$1 &amp; D14 &amp; "','" &amp; O14 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('tatneedle','13156',4);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14">
+      <c r="A15" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40">
+        <v>6</v>
+      </c>
+      <c r="K15" s="40">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
+        <v>1</v>
+      </c>
+      <c r="M15" s="40">
+        <v>7</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40">
+        <v>4557</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>Query!$B$1 &amp; D15 &amp; "','" &amp; O15 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('fedcybex','4557',4);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25">
+      <c r="A16" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="40">
+        <v>1</v>
+      </c>
+      <c r="K16" s="40">
+        <v>2</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0</v>
+      </c>
+      <c r="M16" s="40">
+        <v>3</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O16" s="40">
+        <v>15459</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>Query!$B$1 &amp; D16 &amp; "','" &amp; O16 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('jjchurch','15459',4);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25.5">
+      <c r="A17" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="40">
+        <v>0</v>
+      </c>
+      <c r="K17" s="40">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
+        <v>0</v>
+      </c>
+      <c r="M17" s="40">
+        <v>0</v>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40">
+        <v>5191</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>Query!$B$1 &amp; D17 &amp; "','" &amp; O17 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('charitycab','5191',4);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0</v>
+      </c>
+      <c r="K18" s="40">
+        <v>1</v>
+      </c>
+      <c r="L18" s="40">
+        <v>0</v>
+      </c>
+      <c r="M18" s="40">
+        <v>1</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O18" s="40">
+        <v>4778</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>Query!$B$1 &amp; D18 &amp; "','" &amp; O18 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('cryskin','4778',4);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14">
+      <c r="A19" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="40">
+        <v>5</v>
+      </c>
+      <c r="K19" s="40">
+        <v>3</v>
+      </c>
+      <c r="L19" s="40">
+        <v>1</v>
+      </c>
+      <c r="M19" s="40">
+        <v>9</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40">
+        <v>8687</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>Query!$B$1 &amp; D19 &amp; "','" &amp; O19 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('gentech','8687',4);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="25.5">
+      <c r="A20" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="40">
+        <v>4</v>
+      </c>
+      <c r="K20" s="40">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
+        <v>1</v>
+      </c>
+      <c r="M20" s="40">
+        <v>5</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40">
+        <v>4370</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>Query!$B$1 &amp; D20 &amp; "','" &amp; O20 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('janslab','4370',4);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14">
+      <c r="A21" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="40">
+        <v>10</v>
+      </c>
+      <c r="K21" s="40">
+        <v>28</v>
+      </c>
+      <c r="L21" s="40">
+        <v>3</v>
+      </c>
+      <c r="M21" s="40">
+        <v>41</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40">
+        <v>4364</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>Query!$B$1 &amp; D21 &amp; "','" &amp; O21 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('JJ','4364',4);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="40">
+        <v>0</v>
+      </c>
+      <c r="K22" s="40">
+        <v>3</v>
+      </c>
+      <c r="L22" s="40">
+        <v>1</v>
+      </c>
+      <c r="M22" s="40">
+        <v>4</v>
+      </c>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40">
+        <v>12564</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>Query!$B$1 &amp; D22 &amp; "','" &amp; O22 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('jjfranch','12564',4);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="25.5">
+      <c r="A23" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="40">
+        <v>2</v>
+      </c>
+      <c r="K23" s="40">
+        <v>3</v>
+      </c>
+      <c r="L23" s="40">
+        <v>0</v>
+      </c>
+      <c r="M23" s="40">
+        <v>5</v>
+      </c>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40">
+        <v>4371</v>
+      </c>
+      <c r="P23" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>Query!$B$1 &amp; D23 &amp; "','" &amp; O23 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('lifescanlab','4371',4);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" s="40">
+        <v>5</v>
+      </c>
+      <c r="K24" s="40">
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
+        <v>1</v>
+      </c>
+      <c r="M24" s="40">
+        <v>6</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O24" s="40">
+        <v>4418</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>Query!$B$1 &amp; D24 &amp; "','" &amp; O24 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('clubhell','4418',4);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="25">
+      <c r="A25" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="40">
+        <v>2</v>
+      </c>
+      <c r="K25" s="40">
+        <v>1</v>
+      </c>
+      <c r="L25" s="40">
+        <v>0</v>
+      </c>
+      <c r="M25" s="40">
+        <v>3</v>
+      </c>
+      <c r="N25" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O25" s="40">
+        <v>14798</v>
+      </c>
+      <c r="P25" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>Query!$B$1 &amp; D25 &amp; "','" &amp; O25 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('fimsag','14798',4);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="25.5">
+      <c r="A26" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="40">
+        <v>21</v>
+      </c>
+      <c r="K26" s="40">
+        <v>27</v>
+      </c>
+      <c r="L26" s="40">
+        <v>7</v>
+      </c>
+      <c r="M26" s="40">
+        <v>55</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40">
+        <v>4412</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>Query!$B$1 &amp; D26 &amp; "','" &amp; O26 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('Panam','4412',4);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="40">
+        <v>3</v>
+      </c>
+      <c r="K27" s="40">
+        <v>3</v>
+      </c>
+      <c r="L27" s="40">
+        <v>1</v>
+      </c>
+      <c r="M27" s="40">
+        <v>7</v>
+      </c>
+      <c r="N27" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O27" s="40">
+        <v>4417</v>
+      </c>
+      <c r="P27" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>Query!$B$1 &amp; D27 &amp; "','" &amp; O27 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('tangobar','4417',4);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14">
+      <c r="A28" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" s="40">
+        <v>1</v>
+      </c>
+      <c r="K28" s="40">
+        <v>8</v>
+      </c>
+      <c r="L28" s="40">
+        <v>2</v>
+      </c>
+      <c r="M28" s="40">
+        <v>11</v>
+      </c>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40">
+        <v>4456</v>
+      </c>
+      <c r="P28" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>Query!$B$1 &amp; D28 &amp; "','" &amp; O28 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('arasinc','4456',4);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="14">
+      <c r="A29" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40">
+        <v>0</v>
+      </c>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40">
+        <v>6829</v>
+      </c>
+      <c r="P29" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>Query!$B$1 &amp; D29 &amp; "','" &amp; O29 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('brainstorm','6829',4);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" s="40">
+        <v>3</v>
+      </c>
+      <c r="K30" s="40">
+        <v>4</v>
+      </c>
+      <c r="L30" s="40">
+        <v>1</v>
+      </c>
+      <c r="M30" s="40">
+        <v>8</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O30" s="40">
+        <v>4441</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q30" t="str">
+        <f>Query!$B$1 &amp; D30 &amp; "','" &amp; O30 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('deatharena','4441',4);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="14">
+      <c r="A31" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" s="40">
+        <v>9</v>
+      </c>
+      <c r="K31" s="40">
+        <v>7</v>
+      </c>
+      <c r="L31" s="40">
+        <v>1</v>
+      </c>
+      <c r="M31" s="40">
+        <v>17</v>
+      </c>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40">
+        <v>4346</v>
+      </c>
+      <c r="P31" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q31" t="str">
+        <f>Query!$B$1 &amp; D31 &amp; "','" &amp; O31 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('dexcomp','4346',4);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" s="40">
+        <v>1</v>
+      </c>
+      <c r="K32" s="40">
+        <v>1</v>
+      </c>
+      <c r="L32" s="40">
+        <v>0</v>
+      </c>
+      <c r="M32" s="40">
+        <v>2</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O32" s="40">
+        <v>15269</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>Query!$B$1 &amp; D32 &amp; "','" &amp; O32 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('dextazy','15269',4);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="25">
+      <c r="A33" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" s="40">
+        <v>0</v>
+      </c>
+      <c r="K33" s="40">
+        <v>1</v>
+      </c>
+      <c r="L33" s="40">
+        <v>0</v>
+      </c>
+      <c r="M33" s="40">
+        <v>1</v>
+      </c>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40">
+        <v>4449</v>
+      </c>
+      <c r="P33" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q33" t="str">
+        <f>Query!$B$1 &amp; D33 &amp; "','" &amp; O33 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('fundrebirth','4449',4);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="14">
+      <c r="A34" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" s="40">
+        <v>9</v>
+      </c>
+      <c r="K34" s="40">
+        <v>12</v>
+      </c>
+      <c r="L34" s="40">
+        <v>9</v>
+      </c>
+      <c r="M34" s="40">
+        <v>30</v>
+      </c>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40">
+        <v>4340</v>
+      </c>
+      <c r="P34" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q34" t="str">
+        <f>Query!$B$1 &amp; D34 &amp; "','" &amp; O34 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('Serenity','4340',4);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J35" s="40">
+        <v>1</v>
+      </c>
+      <c r="K35" s="40">
+        <v>2</v>
+      </c>
+      <c r="L35" s="40">
+        <v>0</v>
+      </c>
+      <c r="M35" s="40">
+        <v>3</v>
+      </c>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40">
+        <v>4363</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q35" t="str">
+        <f>Query!$B$1 &amp; D35 &amp; "','" &amp; O35 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('serenityadm','4363',4);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J36" s="40">
+        <v>2</v>
+      </c>
+      <c r="K36" s="40">
+        <v>1</v>
+      </c>
+      <c r="L36" s="40">
+        <v>0</v>
+      </c>
+      <c r="M36" s="40">
+        <v>3</v>
+      </c>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40">
+        <v>13853</v>
+      </c>
+      <c r="P36" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q36" t="str">
+        <f>Query!$B$1 &amp; D36 &amp; "','" &amp; O36 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('serenitycourt','13853',4);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J37" s="40">
+        <v>1</v>
+      </c>
+      <c r="K37" s="40">
+        <v>1</v>
+      </c>
+      <c r="L37" s="40">
+        <v>0</v>
+      </c>
+      <c r="M37" s="40">
+        <v>2</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O37" s="40">
+        <v>13591</v>
+      </c>
+      <c r="P37" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q37" t="str">
+        <f>Query!$B$1 &amp; D37 &amp; "','" &amp; O37 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('teaseren','13591',4);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J38" s="40">
+        <v>1</v>
+      </c>
+      <c r="K38" s="40">
+        <v>4</v>
+      </c>
+      <c r="L38" s="40">
+        <v>1</v>
+      </c>
+      <c r="M38" s="40">
+        <v>6</v>
+      </c>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40">
+        <v>11197</v>
+      </c>
+      <c r="P38" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q38" t="str">
+        <f>Query!$B$1 &amp; D38 &amp; "','" &amp; O38 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('engincom','11197',4);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="25.5">
+      <c r="A39" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J39" s="40">
+        <v>1</v>
+      </c>
+      <c r="K39" s="40">
+        <v>1</v>
+      </c>
+      <c r="L39" s="40">
+        <v>1</v>
+      </c>
+      <c r="M39" s="40">
+        <v>3</v>
+      </c>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40">
+        <v>4374</v>
+      </c>
+      <c r="P39" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q39" t="str">
+        <f>Query!$B$1 &amp; D39 &amp; "','" &amp; O39 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('Govt','4374',4);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" s="40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
+        <v>2</v>
+      </c>
+      <c r="M40" s="40">
+        <v>2</v>
+      </c>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40">
+        <v>4384</v>
+      </c>
+      <c r="P40" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q40" t="str">
+        <f>Query!$B$1 &amp; D40 &amp; "','" &amp; O40 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('johnsmfund','4384',4);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" s="40">
+        <v>1</v>
+      </c>
+      <c r="K41" s="40">
+        <v>7</v>
+      </c>
+      <c r="L41" s="40">
+        <v>4</v>
+      </c>
+      <c r="M41" s="40">
+        <v>12</v>
+      </c>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40">
+        <v>4379</v>
+      </c>
+      <c r="P41" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q41" t="str">
+        <f>Query!$B$1 &amp; D41 &amp; "','" &amp; O41 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('legalcom','4379',4);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" s="40">
+        <v>1</v>
+      </c>
+      <c r="K42" s="40">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40">
+        <v>2</v>
+      </c>
+      <c r="M42" s="40">
+        <v>3</v>
+      </c>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40">
+        <v>11419</v>
+      </c>
+      <c r="P42" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q42" t="str">
+        <f>Query!$B$1 &amp; D42 &amp; "','" &amp; O42 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('rescuecom','11419',4);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" s="40">
+        <v>0</v>
+      </c>
+      <c r="K43" s="40">
+        <v>5</v>
+      </c>
+      <c r="L43" s="40">
+        <v>2</v>
+      </c>
+      <c r="M43" s="40">
+        <v>7</v>
+      </c>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40">
+        <v>4375</v>
+      </c>
+      <c r="P43" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q43" t="str">
+        <f>Query!$B$1 &amp; D43 &amp; "','" &amp; O43 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('securcom','4375',4);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" s="40">
+        <v>5</v>
+      </c>
+      <c r="K44" s="40">
+        <v>21</v>
+      </c>
+      <c r="L44" s="40">
+        <v>5</v>
+      </c>
+      <c r="M44" s="40">
+        <v>31</v>
+      </c>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40">
+        <v>4377</v>
+      </c>
+      <c r="P44" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q44" t="str">
+        <f>Query!$B$1 &amp; D44 &amp; "','" &amp; O44 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('sfpolice','4377',4);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J45" s="40">
+        <v>0</v>
+      </c>
+      <c r="K45" s="40">
+        <v>4</v>
+      </c>
+      <c r="L45" s="40">
+        <v>0</v>
+      </c>
+      <c r="M45" s="40">
+        <v>4</v>
+      </c>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40">
+        <v>13221</v>
+      </c>
+      <c r="P45" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q45" t="str">
+        <f>Query!$B$1 &amp; D45 &amp; "','" &amp; O45 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('solidcom','13221',4);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J46" s="40">
+        <v>0</v>
+      </c>
+      <c r="K46" s="40">
+        <v>1</v>
+      </c>
+      <c r="L46" s="40">
+        <v>0</v>
+      </c>
+      <c r="M46" s="40">
+        <v>1</v>
+      </c>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40">
+        <v>4374</v>
+      </c>
+      <c r="P46" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q46" t="str">
+        <f>Query!$B$1 &amp; D46 &amp; "','" &amp; O46 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('sunlight','4374',4);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40">
+        <v>2</v>
+      </c>
+      <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
+        <v>1</v>
+      </c>
+      <c r="M47" s="40">
+        <v>3</v>
+      </c>
+      <c r="N47" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" s="40">
+        <v>14571</v>
+      </c>
+      <c r="P47" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q47" t="str">
+        <f>Query!$B$1 &amp; D47 &amp; "','" &amp; O47 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('amcoffee','14571',4);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40">
+        <v>0</v>
+      </c>
+      <c r="K48" s="40">
+        <v>0</v>
+      </c>
+      <c r="L48" s="40">
+        <v>0</v>
+      </c>
+      <c r="M48" s="40">
+        <v>0</v>
+      </c>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40">
+        <v>4751</v>
+      </c>
+      <c r="P48" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q48" t="str">
+        <f>Query!$B$1 &amp; D48 &amp; "','" &amp; O48 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('arenacol','4751',4);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40">
+        <v>0</v>
+      </c>
+      <c r="K49" s="40">
+        <v>1</v>
+      </c>
+      <c r="L49" s="40">
+        <v>0</v>
+      </c>
+      <c r="M49" s="40">
+        <v>1</v>
+      </c>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40">
+        <v>4446</v>
+      </c>
+      <c r="P49" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q49" t="str">
+        <f>Query!$B$1 &amp; D49 &amp; "','" &amp; O49 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('capshost','4446',4);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40">
+        <v>8</v>
+      </c>
+      <c r="K50" s="40">
+        <v>0</v>
+      </c>
+      <c r="L50" s="40">
+        <v>1</v>
+      </c>
+      <c r="M50" s="40">
+        <v>9</v>
+      </c>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40">
+        <v>14347</v>
+      </c>
+      <c r="P50" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q50" t="str">
+        <f>Query!$B$1 &amp; D50 &amp; "','" &amp; O50 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('cbs13','14347',4);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40">
+        <v>2</v>
+      </c>
+      <c r="K51" s="40">
+        <v>2</v>
+      </c>
+      <c r="L51" s="40">
+        <v>2</v>
+      </c>
+      <c r="M51" s="40">
+        <v>6</v>
+      </c>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40">
+        <v>9961</v>
+      </c>
+      <c r="P51" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q51" t="str">
+        <f>Query!$B$1 &amp; D51 &amp; "','" &amp; O51 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('columb','9961',4);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="14">
+      <c r="A52" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40">
+        <v>6</v>
+      </c>
+      <c r="K52" s="40">
+        <v>1</v>
+      </c>
+      <c r="L52" s="40">
+        <v>0</v>
+      </c>
+      <c r="M52" s="40">
+        <v>7</v>
+      </c>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40">
+        <v>8564</v>
+      </c>
+      <c r="P52" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q52" t="str">
+        <f>Query!$B$1 &amp; D52 &amp; "','" &amp; O52 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('cosmolab','8564',4);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40">
+        <v>1</v>
+      </c>
+      <c r="K53" s="40">
+        <v>0</v>
+      </c>
+      <c r="L53" s="40">
+        <v>0</v>
+      </c>
+      <c r="M53" s="40">
+        <v>1</v>
+      </c>
+      <c r="N53" s="40"/>
+      <c r="O53" s="39">
+        <v>5189</v>
+      </c>
+      <c r="P53" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q53" t="str">
+        <f>Query!$B$1 &amp; D53 &amp; "','" &amp; O53 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('crimcloud','5189',4);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40">
+        <v>1</v>
+      </c>
+      <c r="K54" s="40">
+        <v>5</v>
+      </c>
+      <c r="L54" s="40">
+        <v>1</v>
+      </c>
+      <c r="M54" s="40">
+        <v>7</v>
+      </c>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40">
+        <v>12404</v>
+      </c>
+      <c r="P54" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q54" t="str">
+        <f>Query!$B$1 &amp; D54 &amp; "','" &amp; O54 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('dinastyclub','12404',4);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40">
+        <v>4</v>
+      </c>
+      <c r="K55" s="40">
+        <v>0</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0</v>
+      </c>
+      <c r="M55" s="40">
+        <v>4</v>
+      </c>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40">
+        <v>5188</v>
+      </c>
+      <c r="P55" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q55" t="str">
+        <f>Query!$B$1 &amp; D55 &amp; "','" &amp; O55 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('elysclub','5188',4);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40">
+        <v>3</v>
+      </c>
+      <c r="K56" s="40">
+        <v>2</v>
+      </c>
+      <c r="L56" s="40">
+        <v>0</v>
+      </c>
+      <c r="M56" s="40">
+        <v>5</v>
+      </c>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40">
+        <v>11791</v>
+      </c>
+      <c r="P56" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q56" t="str">
+        <f>Query!$B$1 &amp; D56 &amp; "','" &amp; O56 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('exitclub','11791',4);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40">
+        <v>1</v>
+      </c>
+      <c r="K57" s="40">
+        <v>0</v>
+      </c>
+      <c r="L57" s="40">
+        <v>0</v>
+      </c>
+      <c r="M57" s="40">
+        <v>1</v>
+      </c>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40">
+        <v>13842</v>
+      </c>
+      <c r="P57" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q57" t="str">
+        <f>Query!$B$1 &amp; D57 &amp; "','" &amp; O57 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('garagecoop','13842',4);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="16" customHeight="1">
+      <c r="A58" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40">
+        <v>0</v>
+      </c>
+      <c r="K58" s="40">
+        <v>1</v>
+      </c>
+      <c r="L58" s="40">
+        <v>0</v>
+      </c>
+      <c r="M58" s="40">
+        <v>1</v>
+      </c>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40">
+        <v>11007</v>
+      </c>
+      <c r="P58" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q58" t="str">
+        <f>Query!$B$1 &amp; D58 &amp; "','" &amp; O58 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('ghostcorp','11007',4);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="14">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40">
+        <v>0</v>
+      </c>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40">
+        <v>15510</v>
+      </c>
+      <c r="P59" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q59" t="str">
+        <f>Query!$B$1 &amp; D59 &amp; "','" &amp; O59 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('holdenlab','15510',4);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40">
+        <v>0</v>
+      </c>
+      <c r="K60" s="40">
+        <v>1</v>
+      </c>
+      <c r="L60" s="40">
+        <v>0</v>
+      </c>
+      <c r="M60" s="40">
+        <v>1</v>
+      </c>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40">
+        <v>13086</v>
+      </c>
+      <c r="P60" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q60" t="str">
+        <f>Query!$B$1 &amp; D60 &amp; "','" &amp; O60 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('infinity','13086',4);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="25.5">
+      <c r="A61" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40">
+        <v>3</v>
+      </c>
+      <c r="K61" s="40">
+        <v>1</v>
+      </c>
+      <c r="L61" s="40">
+        <v>2</v>
+      </c>
+      <c r="M61" s="40">
+        <v>6</v>
+      </c>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40">
+        <v>5014</v>
+      </c>
+      <c r="P61" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q61" t="str">
+        <f>Query!$B$1 &amp; D61 &amp; "','" &amp; O61 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('isracorp','5014',4);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="40"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40">
+        <v>15</v>
+      </c>
+      <c r="K62" s="40">
+        <v>0</v>
+      </c>
+      <c r="L62" s="40">
+        <v>1</v>
+      </c>
+      <c r="M62" s="40">
+        <v>16</v>
+      </c>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40">
+        <v>8085</v>
+      </c>
+      <c r="P62" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q62" t="str">
+        <f>Query!$B$1 &amp; D62 &amp; "','" &amp; O62 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('joycorp','8085',4);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="14">
+      <c r="A63" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40">
+        <v>2</v>
+      </c>
+      <c r="K63" s="40">
+        <v>1</v>
+      </c>
+      <c r="L63" s="40">
+        <v>0</v>
+      </c>
+      <c r="M63" s="40">
+        <v>3</v>
+      </c>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40">
+        <v>6801</v>
+      </c>
+      <c r="P63" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q63" t="str">
+        <f>Query!$B$1 &amp; D63 &amp; "','" &amp; O63 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('karhallab','6801',4);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="40"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40">
+        <v>3</v>
+      </c>
+      <c r="K64" s="40">
+        <v>0</v>
+      </c>
+      <c r="L64" s="40">
+        <v>1</v>
+      </c>
+      <c r="M64" s="40">
+        <v>4</v>
+      </c>
+      <c r="N64" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O64" s="40">
+        <v>13839</v>
+      </c>
+      <c r="P64" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q64" t="str">
+        <f>Query!$B$1 &amp; D64 &amp; "','" &amp; O64 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('lightag','13839',4);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="40"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="H65" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40">
+        <v>3</v>
+      </c>
+      <c r="K65" s="40">
+        <v>1</v>
+      </c>
+      <c r="L65" s="40">
+        <v>0</v>
+      </c>
+      <c r="M65" s="40">
+        <v>4</v>
+      </c>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40">
+        <v>13987</v>
+      </c>
+      <c r="P65" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q65" t="str">
+        <f>Query!$B$1 &amp; D65 &amp; "','" &amp; O65 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('lightcafe','13987',4);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="40"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40">
+        <v>1</v>
+      </c>
+      <c r="K66" s="40">
+        <v>2</v>
+      </c>
+      <c r="L66" s="40">
+        <v>0</v>
+      </c>
+      <c r="M66" s="40">
+        <v>3</v>
+      </c>
+      <c r="N66" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O66" s="40">
+        <v>5014</v>
+      </c>
+      <c r="P66" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q66" t="str">
+        <f>Query!$B$1 &amp; D66 &amp; "','" &amp; O66 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('masonpub','5014',4);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="40"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40">
+        <v>1</v>
+      </c>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
+        <v>0</v>
+      </c>
+      <c r="M67" s="40">
+        <v>3</v>
+      </c>
+      <c r="N67" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O67" s="40">
+        <v>12250</v>
+      </c>
+      <c r="P67" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q67" t="str">
+        <f>Query!$B$1 &amp; D67 &amp; "','" &amp; O67 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('opensource','12250',4);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="40"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40">
+        <v>3</v>
+      </c>
+      <c r="K68" s="40">
+        <v>1</v>
+      </c>
+      <c r="L68" s="40">
+        <v>1</v>
+      </c>
+      <c r="M68" s="40">
+        <v>5</v>
+      </c>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40">
+        <v>9879</v>
+      </c>
+      <c r="P68" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q68" t="str">
+        <f>Query!$B$1 &amp; D68 &amp; "','" &amp; O68 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('pitokanava','9879',4);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="25">
+      <c r="A69" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40">
+        <v>2</v>
+      </c>
+      <c r="K69" s="40">
+        <v>1</v>
+      </c>
+      <c r="L69" s="40">
+        <v>0</v>
+      </c>
+      <c r="M69" s="40">
+        <v>3</v>
+      </c>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40">
+        <v>12997</v>
+      </c>
+      <c r="P69" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q69" t="str">
+        <f>Query!$B$1 &amp; D69 &amp; "','" &amp; O69 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('pivalentine','12997',4);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="25">
+      <c r="A70" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="40"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40">
+        <v>5</v>
+      </c>
+      <c r="K70" s="40">
+        <v>1</v>
+      </c>
+      <c r="L70" s="40">
+        <v>0</v>
+      </c>
+      <c r="M70" s="40">
+        <v>6</v>
+      </c>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40">
+        <v>13842</v>
+      </c>
+      <c r="P70" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q70" t="str">
+        <f>Query!$B$1 &amp; D70 &amp; "','" &amp; O70 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('pornstudio','13842',4);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="14">
+      <c r="A71" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40">
+        <v>4</v>
+      </c>
+      <c r="K71" s="40">
+        <v>1</v>
+      </c>
+      <c r="L71" s="40">
+        <v>0</v>
+      </c>
+      <c r="M71" s="40">
+        <v>5</v>
+      </c>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40">
+        <v>6395</v>
+      </c>
+      <c r="P71" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q71" t="str">
+        <f>Query!$B$1 &amp; D71 &amp; "','" &amp; O71 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('salon42','6395',4);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="40"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40">
+        <v>5</v>
+      </c>
+      <c r="K72" s="40">
+        <v>4</v>
+      </c>
+      <c r="L72" s="40">
+        <v>2</v>
+      </c>
+      <c r="M72" s="40">
+        <v>11</v>
+      </c>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40">
+        <v>14027</v>
+      </c>
+      <c r="P72" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q72" t="str">
+        <f>Query!$B$1 &amp; D72 &amp; "','" &amp; O72 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('sistersmith','14027',4);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="40"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40">
+        <v>1</v>
+      </c>
+      <c r="K73" s="40">
+        <v>1</v>
+      </c>
+      <c r="L73" s="40">
+        <v>0</v>
+      </c>
+      <c r="M73" s="40">
+        <v>2</v>
+      </c>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40">
+        <v>13862</v>
+      </c>
+      <c r="P73" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q73" t="str">
+        <f>Query!$B$1 &amp; D73 &amp; "','" &amp; O73 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('solag','13862',4);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="14">
+      <c r="A74" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G74" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40">
+        <v>18</v>
+      </c>
+      <c r="K74" s="40">
+        <v>2</v>
+      </c>
+      <c r="L74" s="40">
+        <v>0</v>
+      </c>
+      <c r="M74" s="40">
+        <v>20</v>
+      </c>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40">
+        <v>4580</v>
+      </c>
+      <c r="P74" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q74" t="str">
+        <f>Query!$B$1 &amp; D74 &amp; "','" &amp; O74 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('spanglish','4580',4);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="25.5">
+      <c r="A75" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G75" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I75" s="39"/>
+      <c r="J75" s="40">
+        <v>2</v>
+      </c>
+      <c r="K75" s="40">
+        <v>8</v>
+      </c>
+      <c r="L75" s="40">
+        <v>1</v>
+      </c>
+      <c r="M75" s="40">
+        <v>11</v>
+      </c>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40">
+        <v>4372</v>
+      </c>
+      <c r="P75" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q75" t="str">
+        <f>Query!$B$1 &amp; D75 &amp; "','" &amp; O75 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('stfranhosp','4372',4);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="40"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40">
+        <v>0</v>
+      </c>
+      <c r="K76" s="40">
+        <v>0</v>
+      </c>
+      <c r="L76" s="40">
+        <v>0</v>
+      </c>
+      <c r="M76" s="40">
+        <v>0</v>
+      </c>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40">
+        <v>13362</v>
+      </c>
+      <c r="P76" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q76" t="str">
+        <f>Query!$B$1 &amp; D76 &amp; "','" &amp; O76 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('thirdpub','13362',4);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="40"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40">
+        <v>9</v>
+      </c>
+      <c r="K77" s="40">
+        <v>1</v>
+      </c>
+      <c r="L77" s="40">
+        <v>0</v>
+      </c>
+      <c r="M77" s="40">
+        <v>10</v>
+      </c>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40">
+        <v>8517</v>
+      </c>
+      <c r="P77" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q77" t="str">
+        <f>Query!$B$1 &amp; D77 &amp; "','" &amp; O77 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('twilightpub','8517',4);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="50"/>
+      <c r="B78" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J78" s="40">
+        <v>0</v>
+      </c>
+      <c r="K78" s="40">
+        <v>0</v>
+      </c>
+      <c r="L78" s="40">
+        <v>0</v>
+      </c>
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40">
+        <v>4456</v>
+      </c>
+      <c r="P78" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q78" t="str">
+        <f>Query!$B$1 &amp; D78 &amp; "','" &amp; O78 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('kintsugicompany','4456',4);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="50"/>
+      <c r="B79" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="I79" s="40"/>
+      <c r="J79" s="52">
+        <v>0</v>
+      </c>
+      <c r="K79" s="52">
+        <v>0</v>
+      </c>
+      <c r="L79" s="52">
+        <v>0</v>
+      </c>
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O79" s="40">
+        <v>15918</v>
+      </c>
+      <c r="P79" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q79" t="str">
+        <f>Query!$B$1 &amp; D79 &amp; "','" &amp; O79 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('hawaii','15918',4);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="50"/>
+      <c r="B80" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="39"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40">
+        <v>0</v>
+      </c>
+      <c r="K80" s="40">
+        <v>0</v>
+      </c>
+      <c r="L80" s="40">
+        <v>0</v>
+      </c>
+      <c r="M80" s="40">
+        <v>0</v>
+      </c>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40">
+        <v>11416</v>
+      </c>
+      <c r="P80" s="41"/>
+      <c r="Q80" t="str">
+        <f>Query!$B$1 &amp; D80 &amp; "','" &amp; O80 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('investfund','11416',4);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="50"/>
+      <c r="B81" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" s="39"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40">
+        <v>0</v>
+      </c>
+      <c r="K81" s="40">
+        <v>0</v>
+      </c>
+      <c r="L81" s="40">
+        <v>0</v>
+      </c>
+      <c r="M81" s="40">
+        <v>0</v>
+      </c>
+      <c r="N81" s="52"/>
+      <c r="O81" s="40">
+        <v>11416</v>
+      </c>
+      <c r="P81" s="60"/>
+      <c r="Q81" t="str">
+        <f>Query!$B$1 &amp; D81 &amp; "','" &amp; O81 &amp; Query!$B$2</f>
+        <v>insert into dbo.AccountAccesses ([Slave], [Master], Role) values ('tradefund','11416',4);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="13">
+      <c r="A82" s="50"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="51">
+        <v>220</v>
+      </c>
+      <c r="K82" s="51">
+        <v>204</v>
+      </c>
+      <c r="L82" s="51">
+        <v>63</v>
+      </c>
+      <c r="M82" s="51">
+        <v>487</v>
+      </c>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="41"/>
+    </row>
+    <row r="83" spans="1:17" ht="13">
+      <c r="A83" s="50"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40">
+        <v>180</v>
+      </c>
+      <c r="K83" s="40">
+        <v>120</v>
+      </c>
+      <c r="L83" s="40">
+        <v>50</v>
+      </c>
+      <c r="M83" s="51">
+        <v>350</v>
+      </c>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="41"/>
+    </row>
+    <row r="84" spans="1:17" ht="13">
+      <c r="A84" s="50"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="I84" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J84" s="40">
+        <v>20</v>
+      </c>
+      <c r="K84" s="40">
+        <v>30</v>
+      </c>
+      <c r="L84" s="40">
+        <v>7</v>
+      </c>
+      <c r="M84" s="51">
+        <v>57</v>
+      </c>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="41"/>
+    </row>
+    <row r="85" spans="1:17" ht="13">
+      <c r="A85" s="50"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="I85" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="J85" s="40">
+        <v>20</v>
+      </c>
+      <c r="K85" s="40">
+        <v>25</v>
+      </c>
+      <c r="L85" s="40">
+        <v>10</v>
+      </c>
+      <c r="M85" s="51">
+        <v>55</v>
+      </c>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="41"/>
+    </row>
+    <row r="86" spans="1:17" ht="13">
+      <c r="A86" s="50"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="I86" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="J86" s="40">
+        <v>20</v>
+      </c>
+      <c r="K86" s="40">
+        <v>30</v>
+      </c>
+      <c r="L86" s="40">
+        <v>10</v>
+      </c>
+      <c r="M86" s="51">
+        <v>60</v>
+      </c>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="41"/>
+    </row>
+    <row r="87" spans="1:17" ht="13">
+      <c r="A87" s="50"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="I87" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="J87" s="40">
+        <v>80</v>
+      </c>
+      <c r="K87" s="40">
+        <v>30</v>
+      </c>
+      <c r="L87" s="40">
+        <v>4</v>
+      </c>
+      <c r="M87" s="51">
+        <v>114</v>
+      </c>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="41"/>
+    </row>
+    <row r="88" spans="1:17" ht="13">
+      <c r="A88" s="50"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="I88" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="J88" s="40">
+        <v>30</v>
+      </c>
+      <c r="K88" s="40">
+        <v>40</v>
+      </c>
+      <c r="L88" s="40">
+        <v>20</v>
+      </c>
+      <c r="M88" s="51">
+        <v>90</v>
+      </c>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="41"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="53"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54">
+        <v>170</v>
+      </c>
+      <c r="K89" s="54">
+        <v>155</v>
+      </c>
+      <c r="L89" s="54">
+        <v>51</v>
+      </c>
+      <c r="M89" s="54">
+        <v>376</v>
+      </c>
+      <c r="N89" s="54"/>
+      <c r="O89" s="54"/>
+      <c r="P89" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -29710,11 +34757,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -29729,10 +34776,16 @@
       <c r="A1" s="18" t="s">
         <v>245</v>
       </c>
+      <c r="B1" s="19" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="25">
       <c r="A2" s="20" t="s">
         <v>247</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:2">
